--- a/data/login_data.xlsx
+++ b/data/login_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\PyCharm\shixi\Guangfa_ui_test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A53A88B-0A46-44CD-BDA7-A91B246FAB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADC6B66-B8E4-41AB-9CBE-9355CB4E95FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8580" yWindow="2712" windowWidth="9804" windowHeight="8796" tabRatio="460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,25 @@
     <sheet name="peopleInGuangfa" sheetId="4" r:id="rId4"/>
     <sheet name="others" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="202">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -455,10 +463,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>没有输入邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>邮箱格式错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -479,10 +483,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密码输入不正确(数字长度不够)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>没有输入密码问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -495,10 +495,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>验证码输入不正确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>没有输入密码和密码问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -515,34 +511,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码输入不正确(只有字母)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码输入不正确(只有数字)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码输入不正确(密码过长)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码输入不正确(数字长度过长)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码输入不正确(字母长度不够)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码输入不正确(字母长度过长)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>abcdefg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -551,10 +519,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密码输入不正确(密码过短)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ab123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -567,10 +531,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密码输入不正确(含有_字符)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>123456abc_</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -579,10 +539,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>abc123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test_wyf163.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -599,10 +555,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正确输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>退出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -631,10 +583,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>账户/密码错误(账号错误)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test_no@163.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -695,10 +643,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>duplicate@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否回退</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -719,7 +663,187 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>邮箱地址不正确</t>
+    <t>输入密码只有字母(位数正常)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入密码只有数字(位数正常)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入密码过长(数字+字母)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入密码过短(数字+字母)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入密码过短(只有字母)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入密码过长(只有字母)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入密码过长(只有数字)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入密码过短(只有数字)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入密码含有其他字符(含有_字符)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入密码过长(字母+数字)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入密码过短(字母+数字)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入错误验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wyf_test_1@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确输入(字母大写)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确输入(字母小写)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确输入(字母大写+字母小写)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wyf_test_2@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wyf_test_0@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确用例(字母小写)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确用例(字母大写)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确用例(字母小写+字母大写)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_wyf_0@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_wyf_1@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_wyf_2@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123ABCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123abcd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123AbcD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱地址不正确(没有@)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱地址不正确(含有/)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test\wyf@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_你好@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱格式不正确(含有中文)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc1235</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_wyf163.com@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户/密码错误(账号错误/不存在)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确输入(邮箱地址带-)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wyf-test@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确输入(邮箱地只有数字)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>156@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确输入(其他邮箱地址)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wyf-test@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱字母大小写有关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码大小写有关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abc1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1068,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1088,384 +1212,384 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D1" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F1" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="H1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="I1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="I2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>197</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>169</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>197</v>
       </c>
       <c r="B4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C4" t="s">
-        <v>138</v>
-      </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>197</v>
       </c>
       <c r="B5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>155</v>
-      </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>197</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>191</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" t="s">
         <v>128</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>197</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1234567</v>
+        <v>196</v>
+      </c>
+      <c r="D7" t="s">
+        <v>128</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>198</v>
       </c>
       <c r="B8" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>129</v>
+      <c r="D8" t="s">
+        <v>128</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="I8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
+    <row r="9" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>198</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>131</v>
+        <v>189</v>
+      </c>
+      <c r="D9" t="s">
+        <v>128</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="I9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
+    <row r="10" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>198</v>
       </c>
       <c r="B10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>140</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>140</v>
+      </c>
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>140</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" t="s">
         <v>126</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
-        <v>155</v>
-      </c>
-      <c r="I10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" t="s">
-        <v>155</v>
-      </c>
-      <c r="I11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1234567890123</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" t="s">
-        <v>155</v>
-      </c>
-      <c r="I12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>112</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="3">
-        <v>123</v>
-      </c>
       <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G13" t="s">
         <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="I13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
+      <c r="A14" t="s">
+        <v>198</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
@@ -1477,143 +1601,442 @@
         <v>24</v>
       </c>
       <c r="H14" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="I14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
+      <c r="A15" t="s">
+        <v>198</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>141</v>
+      <c r="D15" s="3">
+        <v>1234567</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G15" t="s">
         <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="I15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
+      <c r="A16" t="s">
+        <v>198</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1234</v>
+        <v>119</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" t="s">
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="I16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
+      <c r="A17" t="s">
+        <v>198</v>
       </c>
       <c r="B17" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G17" t="s">
         <v>24</v>
       </c>
       <c r="H17" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="I17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
+      <c r="A18" t="s">
+        <v>198</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1234567890123</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3">
+        <v>123</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s">
+        <v>140</v>
+      </c>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>198</v>
+      </c>
+      <c r="B22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1234</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>198</v>
+      </c>
+      <c r="B25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
         <v>7</v>
       </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" t="s">
-        <v>155</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" t="s">
+        <v>140</v>
+      </c>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B27" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" t="s">
+        <v>140</v>
+      </c>
+      <c r="I27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" t="s">
+        <v>140</v>
+      </c>
+      <c r="I28" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{D89B65B6-C95B-4C84-ADA2-7B275DBD2A0D}"/>
-    <hyperlink ref="C12" r:id="rId2" xr:uid="{C6075767-3FB5-4F67-A628-796B4453B1A4}"/>
-    <hyperlink ref="C11" r:id="rId3" xr:uid="{3266EF88-6B2C-45A9-9155-9035C54E661D}"/>
-    <hyperlink ref="C10" r:id="rId4" xr:uid="{08EF1AC7-B0BD-4C59-8D7F-22693D99F13B}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{A99DAA1B-7757-4569-A40A-B25B06D9D80F}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{752E11F7-F795-4474-89F2-6B098FA1946B}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{F9609AE5-9559-4637-9B60-3F8CE4CCD23E}"/>
-    <hyperlink ref="C6" r:id="rId8" xr:uid="{4A234744-3FD6-484F-BFF9-086429FFC82C}"/>
-    <hyperlink ref="C14" r:id="rId9" xr:uid="{B226D039-47C7-4DF7-ACF5-D4DCDB72CF3C}"/>
-    <hyperlink ref="C5" r:id="rId10" xr:uid="{6D1DC13A-2215-4E8A-8519-6E5502EB4C25}"/>
-    <hyperlink ref="C16" r:id="rId11" xr:uid="{8D24BBA6-FC0F-4C1E-93CC-BBE3D872E366}"/>
-    <hyperlink ref="C18" r:id="rId12" xr:uid="{62A275FF-DEA4-432F-B555-CD376527D570}"/>
+    <hyperlink ref="C21" r:id="rId1" xr:uid="{D89B65B6-C95B-4C84-ADA2-7B275DBD2A0D}"/>
+    <hyperlink ref="C20" r:id="rId2" xr:uid="{C6075767-3FB5-4F67-A628-796B4453B1A4}"/>
+    <hyperlink ref="C19" r:id="rId3" xr:uid="{3266EF88-6B2C-45A9-9155-9035C54E661D}"/>
+    <hyperlink ref="C18" r:id="rId4" xr:uid="{08EF1AC7-B0BD-4C59-8D7F-22693D99F13B}"/>
+    <hyperlink ref="C17" r:id="rId5" xr:uid="{A99DAA1B-7757-4569-A40A-B25B06D9D80F}"/>
+    <hyperlink ref="C16" r:id="rId6" xr:uid="{752E11F7-F795-4474-89F2-6B098FA1946B}"/>
+    <hyperlink ref="C15" r:id="rId7" xr:uid="{F9609AE5-9559-4637-9B60-3F8CE4CCD23E}"/>
+    <hyperlink ref="C14" r:id="rId8" xr:uid="{4A234744-3FD6-484F-BFF9-086429FFC82C}"/>
+    <hyperlink ref="C22" r:id="rId9" xr:uid="{B226D039-47C7-4DF7-ACF5-D4DCDB72CF3C}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{6D1DC13A-2215-4E8A-8519-6E5502EB4C25}"/>
+    <hyperlink ref="C24" r:id="rId11" xr:uid="{8D24BBA6-FC0F-4C1E-93CC-BBE3D872E366}"/>
+    <hyperlink ref="C26" r:id="rId12" xr:uid="{62A275FF-DEA4-432F-B555-CD376527D570}"/>
     <hyperlink ref="C2" r:id="rId13" xr:uid="{6CDC46BC-6C09-4A1F-910A-9923B65399C3}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{B2A1EE4D-7D22-4798-A317-FC6DE19E3666}"/>
-    <hyperlink ref="C17" r:id="rId15" xr:uid="{C2391C1A-23F8-4939-A26F-081ACD461F69}"/>
+    <hyperlink ref="C23" r:id="rId14" xr:uid="{B2A1EE4D-7D22-4798-A317-FC6DE19E3666}"/>
+    <hyperlink ref="C25" r:id="rId15" xr:uid="{C2391C1A-23F8-4939-A26F-081ACD461F69}"/>
+    <hyperlink ref="C3" r:id="rId16" xr:uid="{BF33FFD7-AD4A-4A9A-9985-6DA75042BC27}"/>
+    <hyperlink ref="C4" r:id="rId17" xr:uid="{5343D7A1-EBA9-4B91-8A3E-6130DF32E239}"/>
+    <hyperlink ref="C10" r:id="rId18" xr:uid="{B31B118C-96A4-4952-9667-50C2C998CFB6}"/>
+    <hyperlink ref="C9" r:id="rId19" xr:uid="{B4CE9643-259E-462D-AF5E-C1DB1DB2D40E}"/>
+    <hyperlink ref="C6" r:id="rId20" xr:uid="{3567BA15-0514-4699-8A0C-565DEBF5FC6E}"/>
+    <hyperlink ref="C5" r:id="rId21" xr:uid="{9E1050A6-0FA8-4DF8-A324-6AA6A9C1D119}"/>
+    <hyperlink ref="C7" r:id="rId22" xr:uid="{C50C7174-F129-4C5B-8B7F-FAF83CA4EE28}"/>
+    <hyperlink ref="C28" r:id="rId23" xr:uid="{610E9798-E9E0-4844-AA48-35593F925B77}"/>
+    <hyperlink ref="C27" r:id="rId24" xr:uid="{C01E1776-DD5C-44C9-A1B6-86441C583F9B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1621,10 +2044,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550C0763-707D-48F2-9CDA-BF9AB735E4F9}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1643,37 +2066,37 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" t="s">
         <v>144</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="J1" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>147</v>
       </c>
-      <c r="I1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K1" t="s">
-        <v>162</v>
-      </c>
       <c r="L1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1681,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
@@ -1702,10 +2125,10 @@
         <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L2" t="s">
         <v>45</v>
@@ -1716,7 +2139,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -1740,10 +2163,10 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K3" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L3" t="s">
         <v>45</v>
@@ -1754,7 +2177,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -1778,10 +2201,10 @@
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K4" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L4" t="s">
         <v>45</v>
@@ -1792,7 +2215,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -1813,10 +2236,10 @@
         <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K5" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L5" t="s">
         <v>45</v>
@@ -1827,7 +2250,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -1848,10 +2271,10 @@
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K6" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L6" t="s">
         <v>45</v>
@@ -1862,7 +2285,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -1886,10 +2309,10 @@
         <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K7" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L7" t="s">
         <v>45</v>
@@ -1900,16 +2323,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1924,10 +2347,10 @@
         <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K8" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L8" t="s">
         <v>45</v>
@@ -1938,7 +2361,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -1962,10 +2385,10 @@
         <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K9" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L9" t="s">
         <v>45</v>
@@ -1976,16 +2399,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -2000,10 +2423,10 @@
         <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L10" t="s">
         <v>45</v>
@@ -2014,16 +2437,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -2038,10 +2461,10 @@
         <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K11" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s">
         <v>45</v>
@@ -2052,16 +2475,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -2076,10 +2499,10 @@
         <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s">
         <v>45</v>
@@ -2090,16 +2513,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -2114,10 +2537,10 @@
         <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K13" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s">
         <v>45</v>
@@ -2128,7 +2551,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -2152,10 +2575,10 @@
         <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K14" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L14" t="s">
         <v>45</v>
@@ -2166,7 +2589,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>20</v>
@@ -2190,10 +2613,10 @@
         <v>21</v>
       </c>
       <c r="J15" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
         <v>45</v>
@@ -2204,16 +2627,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -2228,10 +2651,10 @@
         <v>21</v>
       </c>
       <c r="J16" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K16" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L16" t="s">
         <v>45</v>
@@ -2242,7 +2665,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>20</v>
@@ -2263,10 +2686,10 @@
         <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K17" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s">
         <v>45</v>
@@ -2277,7 +2700,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>20</v>
@@ -2298,10 +2721,10 @@
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K18" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L18" t="s">
         <v>45</v>
@@ -2312,7 +2735,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>20</v>
@@ -2333,10 +2756,10 @@
         <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K19" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L19" t="s">
         <v>45</v>
@@ -2347,7 +2770,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>20</v>
@@ -2371,10 +2794,10 @@
         <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K20" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L20" t="s">
         <v>45</v>
@@ -2385,7 +2808,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>20</v>
@@ -2400,13 +2823,13 @@
         <v>11</v>
       </c>
       <c r="I21" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="J21" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K21" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L21" t="s">
         <v>45</v>
@@ -2417,7 +2840,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>20</v>
@@ -2432,13 +2855,13 @@
         <v>11</v>
       </c>
       <c r="I22" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="J22" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K22" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L22" t="s">
         <v>45</v>
@@ -2449,7 +2872,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="3" t="s">
@@ -2465,13 +2888,13 @@
         <v>11</v>
       </c>
       <c r="I23" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="J23" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K23" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L23" t="s">
         <v>45</v>
@@ -2482,7 +2905,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>8</v>
@@ -2491,13 +2914,13 @@
         <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="J24" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K24" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="L24" t="s">
         <v>45</v>
@@ -2508,13 +2931,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>8</v>
@@ -2529,13 +2952,13 @@
         <v>11</v>
       </c>
       <c r="I25" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="J25" t="s">
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="L25" t="s">
         <v>46</v>
@@ -2546,13 +2969,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>8</v>
@@ -2567,15 +2990,53 @@
         <v>11</v>
       </c>
       <c r="I26" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="J26" t="s">
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="L26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" t="s">
+        <v>129</v>
+      </c>
+      <c r="J27" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>139</v>
+      </c>
+      <c r="L27" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2603,6 +3064,7 @@
     <hyperlink ref="C8" r:id="rId19" xr:uid="{B6A479E8-2805-4E72-B102-1F3EEEE1D70F}"/>
     <hyperlink ref="C16" r:id="rId20" xr:uid="{FF5A0579-D8A4-4DF6-9DEC-28AF7E1A2C93}"/>
     <hyperlink ref="C26" r:id="rId21" xr:uid="{A2AEB5E5-EE7D-41EB-968E-B52F7E960518}"/>
+    <hyperlink ref="C27" r:id="rId22" xr:uid="{D3CD74A1-BC06-442D-AABC-0C98B0B5E93F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2612,7 +3074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699B77F2-63D4-4419-A94A-BD619DD5E104}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -3382,7 +3844,7 @@
         <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
